--- a/Maruthi Reports/Results/Run_1/(Maruthi Reports) Run_1.xlsx
+++ b/Maruthi Reports/Results/Run_1/(Maruthi Reports) Run_1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="115">
   <si>
     <t>Total Test Cases</t>
   </si>
@@ -55,88 +55,315 @@
     <t>User_Regression</t>
   </si>
   <si>
-    <t>createnexa1</t>
-  </si>
-  <si>
-    <t>ChatBot2</t>
+    <t>createnexa</t>
+  </si>
+  <si>
+    <t>ChatBot</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
+    <t>31 Sec</t>
+  </si>
+  <si>
+    <t>Passed</t>
+  </si>
+  <si>
+    <t>ATU_TC_1</t>
+  </si>
+  <si>
+    <t>Step Description</t>
+  </si>
+  <si>
+    <t>Input Value</t>
+  </si>
+  <si>
+    <t>Expected value</t>
+  </si>
+  <si>
+    <t>Actual Value</t>
+  </si>
+  <si>
+    <t>Line No</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Screenshot</t>
+  </si>
+  <si>
+    <t>Wait for visibility of Elementchatbot icon -</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>1699102147 Sec</t>
+  </si>
+  <si>
+    <t>285</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>Click on chatbot icon -</t>
+  </si>
+  <si>
+    <t>321 Milli Sec</t>
+  </si>
+  <si>
+    <t>307</t>
+  </si>
+  <si>
+    <t>Wait for visibility of ElementMSSF loan process button -</t>
+  </si>
+  <si>
+    <t>7 Sec</t>
+  </si>
+  <si>
+    <t>Time taken for visiblity of MSSF loan process button - : 28.0 ms</t>
+  </si>
+  <si>
+    <t>277 Milli Sec</t>
+  </si>
+  <si>
+    <t>329</t>
+  </si>
+  <si>
+    <t>Click on MSSF loan process button -</t>
+  </si>
+  <si>
+    <t>394 Milli Sec</t>
+  </si>
+  <si>
+    <t>Verified excepted reply matches with actual reply</t>
+  </si>
+  <si>
+    <t>Maruti Suzuki Finance is an end to end digital car financing platform where the customer can configure On-Road Price, Check CIBIL score, view multiple offers &amp; proceed to select and apply for a loan of their choice.
+Main Menu</t>
+  </si>
+  <si>
+    <t>1 Sec</t>
+  </si>
+  <si>
+    <t>420</t>
+  </si>
+  <si>
+    <t>Wait for visibility of Elementfinancier option -</t>
+  </si>
+  <si>
+    <t>251 Milli Sec</t>
+  </si>
+  <si>
+    <t>Click on financier option -</t>
+  </si>
+  <si>
+    <t>418 Milli Sec</t>
+  </si>
+  <si>
+    <t>Maruti Suzuki has currently onboarded 24 Finance partners including all key private banks, PSU banks and NBFCs. Proceed further on your Smart Finance journey to get into the details and explore offers suitable for you.
+Pre-approved Loans
+Custom Loans</t>
+  </si>
+  <si>
+    <t>Time taken for visiblity of raise an issue button : 34.0 ms</t>
+  </si>
+  <si>
+    <t>256 Milli Sec</t>
+  </si>
+  <si>
+    <t>Wait for visibility of Elementraise an issue button</t>
+  </si>
+  <si>
+    <t>294 Milli Sec</t>
+  </si>
+  <si>
+    <t>Type on raise an issue button</t>
+  </si>
+  <si>
+    <t>raise an issue</t>
+  </si>
+  <si>
+    <t>452 Milli Sec</t>
+  </si>
+  <si>
+    <t>498</t>
+  </si>
+  <si>
+    <t>raise an issue query is typed</t>
+  </si>
+  <si>
+    <t>346 Milli Sec</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>Click Here to submit a ticket</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wait for visibility of Elementinputfield </t>
+  </si>
+  <si>
+    <t>282 Milli Sec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type on inputfield </t>
+  </si>
+  <si>
+    <t>doc</t>
+  </si>
+  <si>
+    <t>525 Milli Sec</t>
+  </si>
+  <si>
+    <t>518</t>
+  </si>
+  <si>
+    <t>user is able type the text doc</t>
+  </si>
+  <si>
+    <t>369 Milli Sec</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>Predictive text is availble when typing a query</t>
+  </si>
+  <si>
+    <t>349 Milli Sec</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>Wait for visibility of Elementpredictive text -</t>
+  </si>
+  <si>
+    <t>340 Milli Sec</t>
+  </si>
+  <si>
+    <t>Click on predictive text -</t>
+  </si>
+  <si>
+    <t>371 Milli Sec</t>
+  </si>
+  <si>
+    <t>330 Milli Sec</t>
+  </si>
+  <si>
+    <t>process</t>
+  </si>
+  <si>
+    <t>367 Milli Sec</t>
+  </si>
+  <si>
+    <t>Unsure state text is availble when typing a partial query process</t>
+  </si>
+  <si>
+    <t>356 Milli Sec</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>Did you mean any of the following?
+What Is MSSF
+Process
+Whom Does The Processing Fee Go To
+Processing Fees
+How Do I Apply For The Loan</t>
+  </si>
+  <si>
     <t>4 Sec</t>
   </si>
   <si>
-    <t>Passed</t>
-  </si>
-  <si>
-    <t>ATU_TC_1</t>
-  </si>
-  <si>
-    <t>Step Description</t>
-  </si>
-  <si>
-    <t>Input Value</t>
-  </si>
-  <si>
-    <t>Expected value</t>
-  </si>
-  <si>
-    <t>Actual Value</t>
-  </si>
-  <si>
-    <t>Line No</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Screenshot</t>
-  </si>
-  <si>
-    <t>Response Time</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>113</t>
-  </si>
-  <si>
-    <t>1698929122 Sec</t>
-  </si>
-  <si>
-    <t>328</t>
-  </si>
-  <si>
-    <t>PASS</t>
-  </si>
-  <si>
-    <t>Response time within 5 seconds : chatbotdriver</t>
-  </si>
-  <si>
-    <t>200 Milli Sec</t>
-  </si>
-  <si>
-    <t>333</t>
-  </si>
-  <si>
-    <t>Wait for visibility of Elementchatbotdriver</t>
-  </si>
-  <si>
-    <t>220 Milli Sec</t>
-  </si>
-  <si>
-    <t>287</t>
-  </si>
-  <si>
-    <t>Click on chatbotdriver</t>
-  </si>
-  <si>
-    <t>430 Milli Sec</t>
-  </si>
-  <si>
-    <t>309</t>
+    <t>Wait for visibility of ElementClose button -</t>
+  </si>
+  <si>
+    <t>353 Milli Sec</t>
+  </si>
+  <si>
+    <t>Click on Close button -</t>
+  </si>
+  <si>
+    <t>315 Milli Sec</t>
+  </si>
+  <si>
+    <t>Time taken for visiblity of submit button - : 31.0 ms</t>
+  </si>
+  <si>
+    <t>209 Milli Sec</t>
+  </si>
+  <si>
+    <t>Wait for visibility of Elementfeedback1 -</t>
+  </si>
+  <si>
+    <t>169 Milli Sec</t>
+  </si>
+  <si>
+    <t>Click on feedback1 -</t>
+  </si>
+  <si>
+    <t>249 Milli Sec</t>
+  </si>
+  <si>
+    <t>Wait for visibility of Elementfeedback2 -</t>
+  </si>
+  <si>
+    <t>174 Milli Sec</t>
+  </si>
+  <si>
+    <t>Click on feedback2 -</t>
+  </si>
+  <si>
+    <t>242 Milli Sec</t>
+  </si>
+  <si>
+    <t>Wait for visibility of Elementsubmit button -</t>
+  </si>
+  <si>
+    <t>180 Milli Sec</t>
+  </si>
+  <si>
+    <t>Click on submit button -</t>
+  </si>
+  <si>
+    <t>235 Milli Sec</t>
+  </si>
+  <si>
+    <t>Ratings and queries are submitted.</t>
+  </si>
+  <si>
+    <t>170 Milli Sec</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>Thank you for the valuable feedback the popup has received, and the bot is getting closed.</t>
+  </si>
+  <si>
+    <t>168 Milli Sec</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>279 Milli Sec</t>
+  </si>
+  <si>
+    <t>Chat Bot opened with history of queries searched before</t>
+  </si>
+  <si>
+    <t>162 Milli Sec</t>
+  </si>
+  <si>
+    <t>85</t>
   </si>
   <si>
     <t>Go To TestSuite Sheet</t>
@@ -692,7 +919,7 @@
   <sheetPr>
     <tabColor indexed="17"/>
   </sheetPr>
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -748,16 +975,16 @@
         <v>27</v>
       </c>
       <c r="E2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" t="s">
         <v>28</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>29</v>
       </c>
-      <c r="G2" t="s">
-        <v>30</v>
-      </c>
       <c r="H2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I2" t="s">
         <v>25</v>
@@ -768,25 +995,25 @@
         <v>2.0</v>
       </c>
       <c r="B3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" t="s">
         <v>32</v>
       </c>
-      <c r="C3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>33</v>
       </c>
-      <c r="G3" t="s">
-        <v>34</v>
-      </c>
       <c r="H3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I3" t="s">
         <v>25</v>
@@ -797,25 +1024,25 @@
         <v>3.0</v>
       </c>
       <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" t="s">
         <v>35</v>
       </c>
-      <c r="C4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" t="s">
-        <v>36</v>
-      </c>
       <c r="G4" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I4" t="s">
         <v>25</v>
@@ -826,53 +1053,1073 @@
         <v>4.0</v>
       </c>
       <c r="B5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" t="s">
         <v>38</v>
       </c>
-      <c r="C5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="H5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B6" t="s">
         <v>39</v>
       </c>
-      <c r="G5" t="s">
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" t="s">
         <v>40</v>
       </c>
-      <c r="H5" t="s">
+      <c r="G6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" t="s">
+        <v>30</v>
+      </c>
+      <c r="I10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" t="s">
+        <v>51</v>
+      </c>
+      <c r="G11" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" t="s">
+        <v>30</v>
+      </c>
+      <c r="I11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" t="s">
+        <v>53</v>
+      </c>
+      <c r="G12" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" t="s">
+        <v>30</v>
+      </c>
+      <c r="I12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" t="s">
+        <v>56</v>
+      </c>
+      <c r="G13" t="s">
+        <v>57</v>
+      </c>
+      <c r="H13" t="s">
+        <v>30</v>
+      </c>
+      <c r="I13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" t="s">
+        <v>59</v>
+      </c>
+      <c r="G14" t="s">
+        <v>60</v>
+      </c>
+      <c r="H14" t="s">
+        <v>30</v>
+      </c>
+      <c r="I14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" t="s">
+        <v>61</v>
+      </c>
+      <c r="F15" t="s">
+        <v>43</v>
+      </c>
+      <c r="G15" t="s">
+        <v>44</v>
+      </c>
+      <c r="H15" t="s">
+        <v>30</v>
+      </c>
+      <c r="I15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" t="s">
+        <v>63</v>
+      </c>
+      <c r="G16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H16" t="s">
+        <v>30</v>
+      </c>
+      <c r="I16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" t="s">
+        <v>66</v>
+      </c>
+      <c r="G17" t="s">
+        <v>67</v>
+      </c>
+      <c r="H17" t="s">
+        <v>30</v>
+      </c>
+      <c r="I17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="B18" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" t="s">
+        <v>69</v>
+      </c>
+      <c r="G18" t="s">
+        <v>70</v>
+      </c>
+      <c r="H18" t="s">
+        <v>30</v>
+      </c>
+      <c r="I18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="B19" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19" t="s">
+        <v>72</v>
+      </c>
+      <c r="G19" t="s">
+        <v>73</v>
+      </c>
+      <c r="H19" t="s">
+        <v>30</v>
+      </c>
+      <c r="I19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="B20" t="s">
+        <v>74</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20" t="s">
+        <v>75</v>
+      </c>
+      <c r="G20" t="s">
+        <v>29</v>
+      </c>
+      <c r="H20" t="s">
+        <v>30</v>
+      </c>
+      <c r="I20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="B21" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" t="s">
+        <v>27</v>
+      </c>
+      <c r="F21" t="s">
+        <v>77</v>
+      </c>
+      <c r="G21" t="s">
+        <v>33</v>
+      </c>
+      <c r="H21" t="s">
+        <v>30</v>
+      </c>
+      <c r="I21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="B22" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" t="s">
+        <v>27</v>
+      </c>
+      <c r="F22" t="s">
+        <v>78</v>
+      </c>
+      <c r="G22" t="s">
+        <v>29</v>
+      </c>
+      <c r="H22" t="s">
+        <v>30</v>
+      </c>
+      <c r="I22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="B23" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" t="s">
+        <v>79</v>
+      </c>
+      <c r="D23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" t="s">
+        <v>27</v>
+      </c>
+      <c r="F23" t="s">
+        <v>80</v>
+      </c>
+      <c r="G23" t="s">
+        <v>57</v>
+      </c>
+      <c r="H23" t="s">
+        <v>30</v>
+      </c>
+      <c r="I23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="B24" t="s">
+        <v>81</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" t="s">
+        <v>27</v>
+      </c>
+      <c r="F24" t="s">
+        <v>82</v>
+      </c>
+      <c r="G24" t="s">
+        <v>83</v>
+      </c>
+      <c r="H24" t="s">
+        <v>30</v>
+      </c>
+      <c r="I24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="B25" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25" t="s">
+        <v>84</v>
+      </c>
+      <c r="F25" t="s">
+        <v>85</v>
+      </c>
+      <c r="G25" t="s">
+        <v>44</v>
+      </c>
+      <c r="H25" t="s">
+        <v>30</v>
+      </c>
+      <c r="I25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="B26" t="s">
+        <v>86</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26" t="s">
+        <v>27</v>
+      </c>
+      <c r="F26" t="s">
+        <v>87</v>
+      </c>
+      <c r="G26" t="s">
+        <v>29</v>
+      </c>
+      <c r="H26" t="s">
+        <v>30</v>
+      </c>
+      <c r="I26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="B27" t="s">
+        <v>88</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27" t="s">
+        <v>27</v>
+      </c>
+      <c r="F27" t="s">
+        <v>89</v>
+      </c>
+      <c r="G27" t="s">
+        <v>33</v>
+      </c>
+      <c r="H27" t="s">
+        <v>30</v>
+      </c>
+      <c r="I27" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="B28" t="s">
+        <v>90</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>27</v>
+      </c>
+      <c r="F28" t="s">
+        <v>91</v>
+      </c>
+      <c r="G28" t="s">
+        <v>38</v>
+      </c>
+      <c r="H28" t="s">
+        <v>30</v>
+      </c>
+      <c r="I28" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="B29" t="s">
+        <v>92</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29" t="s">
+        <v>27</v>
+      </c>
+      <c r="F29" t="s">
+        <v>93</v>
+      </c>
+      <c r="G29" t="s">
+        <v>29</v>
+      </c>
+      <c r="H29" t="s">
+        <v>30</v>
+      </c>
+      <c r="I29" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="B30" t="s">
+        <v>94</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30" t="s">
+        <v>27</v>
+      </c>
+      <c r="F30" t="s">
+        <v>95</v>
+      </c>
+      <c r="G30" t="s">
+        <v>33</v>
+      </c>
+      <c r="H30" t="s">
+        <v>30</v>
+      </c>
+      <c r="I30" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="B31" t="s">
+        <v>96</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>27</v>
+      </c>
+      <c r="E31" t="s">
+        <v>27</v>
+      </c>
+      <c r="F31" t="s">
+        <v>97</v>
+      </c>
+      <c r="G31" t="s">
+        <v>29</v>
+      </c>
+      <c r="H31" t="s">
+        <v>30</v>
+      </c>
+      <c r="I31" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="B32" t="s">
+        <v>98</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>27</v>
+      </c>
+      <c r="E32" t="s">
+        <v>27</v>
+      </c>
+      <c r="F32" t="s">
+        <v>99</v>
+      </c>
+      <c r="G32" t="s">
+        <v>33</v>
+      </c>
+      <c r="H32" t="s">
+        <v>30</v>
+      </c>
+      <c r="I32" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="B33" t="s">
+        <v>100</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>27</v>
+      </c>
+      <c r="E33" t="s">
+        <v>27</v>
+      </c>
+      <c r="F33" t="s">
+        <v>101</v>
+      </c>
+      <c r="G33" t="s">
+        <v>29</v>
+      </c>
+      <c r="H33" t="s">
+        <v>30</v>
+      </c>
+      <c r="I33" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="B34" t="s">
+        <v>102</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>27</v>
+      </c>
+      <c r="E34" t="s">
+        <v>27</v>
+      </c>
+      <c r="F34" t="s">
+        <v>103</v>
+      </c>
+      <c r="G34" t="s">
+        <v>33</v>
+      </c>
+      <c r="H34" t="s">
+        <v>30</v>
+      </c>
+      <c r="I34" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="B35" t="s">
+        <v>104</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>27</v>
+      </c>
+      <c r="E35" t="s">
+        <v>27</v>
+      </c>
+      <c r="F35" t="s">
+        <v>105</v>
+      </c>
+      <c r="G35" t="s">
+        <v>106</v>
+      </c>
+      <c r="H35" t="s">
+        <v>30</v>
+      </c>
+      <c r="I35" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="B36" t="s">
+        <v>107</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>27</v>
+      </c>
+      <c r="E36" t="s">
+        <v>27</v>
+      </c>
+      <c r="F36" t="s">
+        <v>108</v>
+      </c>
+      <c r="G36" t="s">
+        <v>109</v>
+      </c>
+      <c r="H36" t="s">
+        <v>30</v>
+      </c>
+      <c r="I36" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>27</v>
+      </c>
+      <c r="E37" t="s">
+        <v>27</v>
+      </c>
+      <c r="F37" t="s">
+        <v>43</v>
+      </c>
+      <c r="G37" t="s">
+        <v>29</v>
+      </c>
+      <c r="H37" t="s">
+        <v>30</v>
+      </c>
+      <c r="I37" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="B38" t="s">
         <v>31</v>
       </c>
-      <c r="I5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="36">
-        <v>41</v>
-      </c>
-      <c r="B6"/>
-      <c r="C6"/>
-      <c r="D6"/>
-      <c r="E6"/>
-      <c r="F6"/>
-      <c r="G6"/>
-      <c r="H6"/>
-      <c r="I6"/>
+      <c r="C38" t="s">
+        <v>27</v>
+      </c>
+      <c r="D38" t="s">
+        <v>27</v>
+      </c>
+      <c r="E38" t="s">
+        <v>27</v>
+      </c>
+      <c r="F38" t="s">
+        <v>110</v>
+      </c>
+      <c r="G38" t="s">
+        <v>33</v>
+      </c>
+      <c r="H38" t="s">
+        <v>30</v>
+      </c>
+      <c r="I38" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="B39" t="s">
+        <v>111</v>
+      </c>
+      <c r="C39" t="s">
+        <v>27</v>
+      </c>
+      <c r="D39" t="s">
+        <v>27</v>
+      </c>
+      <c r="E39" t="s">
+        <v>27</v>
+      </c>
+      <c r="F39" t="s">
+        <v>112</v>
+      </c>
+      <c r="G39" t="s">
+        <v>113</v>
+      </c>
+      <c r="H39" t="s">
+        <v>30</v>
+      </c>
+      <c r="I39" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="36">
+        <v>114</v>
+      </c>
+      <c r="B40"/>
+      <c r="C40"/>
+      <c r="D40"/>
+      <c r="E40"/>
+      <c r="F40"/>
+      <c r="G40"/>
+      <c r="H40"/>
+      <c r="I40"/>
     </row>
   </sheetData>
   <mergeCells>
-    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="A40:I40"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I2" r:id="rId1"/>
     <hyperlink ref="I3" r:id="rId2"/>
     <hyperlink ref="I4" r:id="rId3"/>
     <hyperlink ref="I5" r:id="rId4"/>
-    <hyperlink location="'TestSuite'!A1" ref="A6"/>
+    <hyperlink ref="I6" r:id="rId5"/>
+    <hyperlink ref="I7" r:id="rId6"/>
+    <hyperlink ref="I8" r:id="rId7"/>
+    <hyperlink ref="I9" r:id="rId8"/>
+    <hyperlink ref="I10" r:id="rId9"/>
+    <hyperlink ref="I11" r:id="rId10"/>
+    <hyperlink ref="I12" r:id="rId11"/>
+    <hyperlink ref="I13" r:id="rId12"/>
+    <hyperlink ref="I14" r:id="rId13"/>
+    <hyperlink ref="I15" r:id="rId14"/>
+    <hyperlink ref="I16" r:id="rId15"/>
+    <hyperlink ref="I17" r:id="rId16"/>
+    <hyperlink ref="I18" r:id="rId17"/>
+    <hyperlink ref="I19" r:id="rId18"/>
+    <hyperlink ref="I20" r:id="rId19"/>
+    <hyperlink ref="I21" r:id="rId20"/>
+    <hyperlink ref="I22" r:id="rId21"/>
+    <hyperlink ref="I23" r:id="rId22"/>
+    <hyperlink ref="I24" r:id="rId23"/>
+    <hyperlink ref="I25" r:id="rId24"/>
+    <hyperlink ref="I26" r:id="rId25"/>
+    <hyperlink ref="I27" r:id="rId26"/>
+    <hyperlink ref="I28" r:id="rId27"/>
+    <hyperlink ref="I29" r:id="rId28"/>
+    <hyperlink ref="I30" r:id="rId29"/>
+    <hyperlink ref="I31" r:id="rId30"/>
+    <hyperlink ref="I32" r:id="rId31"/>
+    <hyperlink ref="I33" r:id="rId32"/>
+    <hyperlink ref="I34" r:id="rId33"/>
+    <hyperlink ref="I35" r:id="rId34"/>
+    <hyperlink ref="I36" r:id="rId35"/>
+    <hyperlink ref="I37" r:id="rId36"/>
+    <hyperlink ref="I38" r:id="rId37"/>
+    <hyperlink ref="I39" r:id="rId38"/>
+    <hyperlink location="'TestSuite'!A1" ref="A40"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
